--- a/files/autodiag/algorithme.xlsx
+++ b/files/autodiag/algorithme.xlsx
@@ -20,7 +20,7 @@
     <t>algorithme</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_1</t>
+    <t>libelle_valeur_reference_1</t>
   </si>
   <si>
     <t>calcul_valeur_reference_1</t>
@@ -29,7 +29,7 @@
     <t>couleur_reference_1</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_2</t>
+    <t>libelle_valeur_reference_2</t>
   </si>
   <si>
     <t>calcul_valeur_reference_2</t>
@@ -38,7 +38,7 @@
     <t>couleur_reference_2</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_3</t>
+    <t>libelle_valeur_reference_3</t>
   </si>
   <si>
     <t>calcul_valeur_reference_3</t>
@@ -47,7 +47,7 @@
     <t>couleur_reference_3</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_4</t>
+    <t>libelle_valeur_reference_4</t>
   </si>
   <si>
     <t>calcul_valeur_reference_4</t>
@@ -56,7 +56,7 @@
     <t>couleur_reference_4</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_5</t>
+    <t>libelle_valeur_reference_5</t>
   </si>
   <si>
     <t>calcul_valeur_reference_5</t>
@@ -65,7 +65,7 @@
     <t>couleur_reference_5</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_6</t>
+    <t>libelle_valeur_reference_6</t>
   </si>
   <si>
     <t>calcul_valeur_reference_6</t>
@@ -74,7 +74,7 @@
     <t>couleur_reference_6</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_7</t>
+    <t>libelle_valeur_reference_7</t>
   </si>
   <si>
     <t>calcul_valeur_reference_7</t>
@@ -83,7 +83,7 @@
     <t>couleur_reference_7</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_8</t>
+    <t>libelle_valeur_reference_8</t>
   </si>
   <si>
     <t>calcul_valeur_reference_8</t>
@@ -92,7 +92,7 @@
     <t>couleur_reference_8</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_9</t>
+    <t>libelle_valeur_reference_9</t>
   </si>
   <si>
     <t>calcul_valeur_reference_9</t>
@@ -101,7 +101,7 @@
     <t>couleur_reference_9</t>
   </si>
   <si>
-    <t>libelle_valeur_referece_10</t>
+    <t>libelle_valeur_reference_10</t>
   </si>
   <si>
     <t>calcul_valeur_reference_10</t>
@@ -207,8 +207,8 @@
   </sheetPr>
   <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/files/autodiag/algorithme.xlsx
+++ b/files/autodiag/algorithme.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="algorithme" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="algorithme" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>algorithme</t>
   </si>
@@ -108,37 +112,25 @@
   </si>
   <si>
     <t>couleur_reference_10</t>
+  </si>
+  <si>
+    <t>couleur_mon_score</t>
+  </si>
+  <si>
+    <t>libelle_mon_score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +142,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -158,197 +150,492 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Bureau">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Bureau">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Bureau">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="22.8333333333333"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="18.3296296296296"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="23.0037037037037"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="23.8333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.3296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="10.5296296296296"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>